--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,48 +43,54 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>stopped</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>poor</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>product</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -112,325 +121,313 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>family</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>easily</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>purchased</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
     <t>big</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>pot</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>handle</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>size</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -791,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -860,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9655172413793104</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -878,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9032258064516129</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -910,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -928,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -960,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -978,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8606811145510835</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1002,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1010,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5348837209302325</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1028,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>0.8405797101449275</v>
@@ -1060,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4528301886792453</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1078,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7792207792207793</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1102,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1110,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4444444444444444</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1128,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.7662337662337663</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1152,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1160,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1178,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.7457627118644068</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1210,37 +1207,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3246753246753247</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.6926163723916533</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>863</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>863</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1252,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,10 +1278,10 @@
         <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="L11">
         <v>51</v>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1310,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2378378378378379</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1328,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.65625</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1352,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1360,37 +1357,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2156862745098039</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.680577849117175</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L13">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>398</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1410,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2033898305084746</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1428,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.6590909090909091</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1460,37 +1457,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1888888888888889</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.6521739130434783</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1510,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1509433962264151</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1528,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.6346153846153846</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L16">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>66</v>
-      </c>
-      <c r="M16">
-        <v>66</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1560,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1351351351351351</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1578,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.6171428571428571</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1602,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1610,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1230769230769231</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1628,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.6142857142857143</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1652,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1660,37 +1657,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0453257790368272</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="D19">
-        <v>34</v>
-      </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>337</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.562874251497006</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1702,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1710,37 +1707,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0260989010989011</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>709</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.5542168674698795</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1752,73 +1749,145 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.04273504273504274</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0.57</v>
+      </c>
+      <c r="F21">
+        <v>0.43</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>336</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="L21">
+        <v>62</v>
+      </c>
+      <c r="M21">
+        <v>62</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>63</v>
+      </c>
+      <c r="E22">
+        <v>0.62</v>
+      </c>
+      <c r="F22">
+        <v>0.38</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>704</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.5748502994011976</v>
+      </c>
+      <c r="L22">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>96</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.02103786816269285</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="L21">
-        <v>42</v>
-      </c>
-      <c r="M21">
-        <v>42</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.5470085470085471</v>
-      </c>
-      <c r="L22">
-        <v>64</v>
-      </c>
-      <c r="M22">
-        <v>64</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="E23">
+        <v>0.59</v>
+      </c>
+      <c r="F23">
+        <v>0.41</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>698</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.5211267605633803</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1830,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.518796992481203</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1856,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="L26">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M26">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.4918032786885246</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1934,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,21 +2029,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1986,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2012,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.4632352941176471</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L31">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="M31">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2038,47 +2107,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>219</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.4630350194552529</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="L32">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2090,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.4324324324324325</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2116,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4264705882352941</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2142,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.4205479452054794</v>
+        <v>0.4357976653696498</v>
       </c>
       <c r="L36">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="M36">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2168,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>423</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.41</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2194,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.3973509933774834</v>
+        <v>0.4205479452054794</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="M38">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2220,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>91</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.3923444976076555</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L39">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2246,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.375</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2272,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.3725490196078431</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2298,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.3709677419354839</v>
+        <v>0.3732057416267943</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2324,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.3684210526315789</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2350,21 +2419,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.3538461538461539</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2376,21 +2445,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.3382352941176471</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2402,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K46">
-        <v>0.3362068965517241</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L46">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2425,24 +2494,24 @@
         <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>616</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2454,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K48">
-        <v>0.3333333333333333</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2480,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2506,15 +2575,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.3174603174603174</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L50">
         <v>20</v>
@@ -2532,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.316546762589928</v>
+        <v>0.3245033112582781</v>
       </c>
       <c r="L51">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M51">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2558,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.3157894736842105</v>
+        <v>0.3240043057050592</v>
       </c>
       <c r="L52">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="M52">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2584,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>91</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.3090909090909091</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2615,16 +2684,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.3072847682119205</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L54">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2636,12 +2705,12 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>523</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K55">
         <v>0.3061224489795918</v>
@@ -2667,16 +2736,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.3035714285714285</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2688,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K57">
-        <v>0.3</v>
+        <v>0.2868117797695263</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2711,50 +2780,50 @@
         <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K58">
-        <v>0.2741312741312741</v>
+        <v>0.2785145888594164</v>
       </c>
       <c r="L58">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M58">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K59">
-        <v>0.2592592592592592</v>
+        <v>0.2664576802507837</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2766,73 +2835,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>0.25</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K61">
-        <v>0.2484276729559748</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L61">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>239</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K62">
-        <v>0.2380952380952381</v>
+        <v>0.25</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2844,73 +2913,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K63">
-        <v>0.2378048780487805</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K64">
-        <v>0.2349726775956284</v>
+        <v>0.234375</v>
       </c>
       <c r="L64">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>280</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K65">
-        <v>0.2213114754098361</v>
+        <v>0.2324561403508772</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="M65">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2922,99 +2991,99 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>95</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K66">
-        <v>0.2173913043478261</v>
+        <v>0.2309782608695652</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>72</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K67">
-        <v>0.2171052631578947</v>
+        <v>0.2304832713754647</v>
       </c>
       <c r="L67">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="M67">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>357</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K68">
-        <v>0.2160493827160494</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K69">
-        <v>0.2147651006711409</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3026,47 +3095,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K70">
-        <v>0.2136363636363636</v>
+        <v>0.2059496567505721</v>
       </c>
       <c r="L70">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M70">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K71">
-        <v>0.2051282051282051</v>
+        <v>0.2052505966587112</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3078,151 +3147,151 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>93</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K72">
-        <v>0.2043795620437956</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="L72">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K73">
-        <v>0.2033492822966507</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L73">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>333</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K74">
         <v>0.2</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K75">
-        <v>0.2</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L75">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>216</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K76">
-        <v>0.1981981981981982</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K77">
-        <v>0.1935483870967742</v>
+        <v>0.1873479318734793</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3234,47 +3303,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>75</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K78">
-        <v>0.1821561338289963</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L78">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M78">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>220</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K79">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3286,99 +3355,99 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K80">
-        <v>0.1666666666666667</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K81">
-        <v>0.1647727272727273</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L81">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K82">
-        <v>0.1616161616161616</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>83</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K83">
-        <v>0.1587301587301587</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3390,47 +3459,47 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K84">
-        <v>0.1559633027522936</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K85">
-        <v>0.1538461538461539</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3442,21 +3511,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K86">
-        <v>0.1523809523809524</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3468,73 +3537,73 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K87">
-        <v>0.1518987341772152</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L87">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K88">
-        <v>0.1517241379310345</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L88">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M88">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>246</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K89">
-        <v>0.1515151515151515</v>
+        <v>0.1512027491408935</v>
       </c>
       <c r="L89">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M89">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3546,47 +3615,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K90">
-        <v>0.1482014388489209</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L90">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M90">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="N90">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>592</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K91">
-        <v>0.1318681318681319</v>
+        <v>0.1407129455909944</v>
       </c>
       <c r="L91">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="M91">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="N91">
         <v>0.96</v>
@@ -3598,67 +3667,67 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>316</v>
+        <v>916</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K92">
-        <v>0.127221702525725</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L92">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="M92">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>933</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K93">
-        <v>0.1255060728744939</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>216</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K94">
-        <v>0.125</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L94">
         <v>19</v>
@@ -3676,99 +3745,99 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K95">
-        <v>0.1195652173913044</v>
+        <v>0.1133603238866397</v>
       </c>
       <c r="L95">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M95">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N95">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O95">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>162</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K96">
-        <v>0.1162790697674419</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K97">
-        <v>0.1153846153846154</v>
+        <v>0.1122302158273381</v>
       </c>
       <c r="L97">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M97">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>184</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K98">
-        <v>0.1111111111111111</v>
+        <v>0.1120218579234973</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M98">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3780,171 +3849,171 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>128</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K99">
-        <v>0.1099476439790576</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="L99">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="M99">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="N99">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1020</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K100">
-        <v>0.1089108910891089</v>
+        <v>0.106457242582897</v>
       </c>
       <c r="L100">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M100">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>180</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K101">
-        <v>0.1038961038961039</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="L101">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>138</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K102">
-        <v>0.09844559585492228</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="L102">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N102">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O102">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>348</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K103">
-        <v>0.09302325581395349</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L103">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M103">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N103">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O103">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>468</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K104">
-        <v>0.08875739644970414</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="L104">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M104">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N104">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O104">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>154</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K105">
-        <v>0.08598130841121496</v>
+        <v>0.08932038834951456</v>
       </c>
       <c r="L105">
         <v>46</v>
@@ -3962,293 +4031,215 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K106">
-        <v>0.0851581508515815</v>
+        <v>0.07606679035250463</v>
       </c>
       <c r="L106">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M106">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N106">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O106">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>376</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K107">
-        <v>0.08487084870848709</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="L107">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M107">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N107">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K108">
-        <v>0.07575757575757576</v>
+        <v>0.06506849315068493</v>
       </c>
       <c r="L108">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N108">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="O108">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>183</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K109">
-        <v>0.06694560669456066</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="L109">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M109">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>223</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="K110">
-        <v>0.06551724137931035</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="L110">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N110">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="O110">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="K111">
-        <v>0.05865102639296188</v>
+        <v>0.05248990578734859</v>
       </c>
       <c r="L111">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M111">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="N111">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="O111">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>321</v>
+        <v>704</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K112">
-        <v>0.05524861878453038</v>
+        <v>0.04885057471264368</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N112">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="O112">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K113">
-        <v>0.05213903743315508</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="L113">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M113">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="N113">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="O113">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K114">
-        <v>0.05070422535211268</v>
-      </c>
-      <c r="L114">
-        <v>18</v>
-      </c>
-      <c r="M114">
-        <v>34</v>
-      </c>
-      <c r="N114">
-        <v>0.53</v>
-      </c>
-      <c r="O114">
-        <v>0.47</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K115">
-        <v>0.04843304843304843</v>
-      </c>
-      <c r="L115">
-        <v>17</v>
-      </c>
-      <c r="M115">
-        <v>24</v>
-      </c>
-      <c r="N115">
-        <v>0.71</v>
-      </c>
-      <c r="O115">
-        <v>0.29</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K116">
-        <v>0.02892561983471074</v>
-      </c>
-      <c r="L116">
-        <v>21</v>
-      </c>
-      <c r="M116">
-        <v>30</v>
-      </c>
-      <c r="N116">
-        <v>0.7</v>
-      </c>
-      <c r="O116">
-        <v>0.3</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
